--- a/assets/tabulados/R2_encuesta_etapa.xlsx
+++ b/assets/tabulados/R2_encuesta_etapa.xlsx
@@ -6,8 +6,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Encuesta_etapa" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encuesta_etapa'!$A$1:$Q$8</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -357,8 +360,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot;%&quot;"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -366,16 +372,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -383,12 +405,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,435 +734,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="13.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="17.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="19.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="12.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="22.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/assets/tabulados/R2_encuesta_etapa.xlsx
+++ b/assets/tabulados/R2_encuesta_etapa.xlsx
@@ -74,183 +74,189 @@
     <t xml:space="preserve">Verificación</t>
   </si>
   <si>
-    <t xml:space="preserve">94</t>
+    <t xml:space="preserve">1.619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:08:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recolección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:05:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.397</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:02:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:08:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recolección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:05:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.397</t>
-  </si>
-  <si>
     <t xml:space="preserve">0,14</t>
   </si>
   <si>
@@ -317,9 +323,6 @@
     <t xml:space="preserve">00:02:33</t>
   </si>
   <si>
-    <t xml:space="preserve">00:01:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">00:03:39</t>
   </si>
   <si>
@@ -332,28 +335,25 @@
     <t xml:space="preserve">153</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:26</t>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:24</t>
   </si>
   <si>
     <t xml:space="preserve">00:01:12</t>
   </si>
   <si>
-    <t xml:space="preserve">00:01:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:03:26</t>
+    <t xml:space="preserve">00:01:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:02:38</t>
   </si>
 </sst>
 </file>
@@ -876,46 +876,46 @@
         <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -923,28 +923,28 @@
         <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>58</v>
@@ -956,16 +956,16 @@
         <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>63</v>
@@ -982,190 +982,190 @@
         <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>109</v>
@@ -1177,7 +1177,7 @@
         <v>111</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>112</v>
